--- a/biology/Zoologie/Asproparthenis_punctiventris/Asproparthenis_punctiventris.xlsx
+++ b/biology/Zoologie/Asproparthenis_punctiventris/Asproparthenis_punctiventris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asproparthenis punctiventris (le charançon de la betterave) est une espèce d'insectes coléoptères de la famille des Curculionidae, originaire d'Eurasie.
 Cet insecte phytophage se nourrit des feuilles de diverses espèces de plantes, en particulier de la famille des Chenopodiaceae. C'est un ravageur des cultures de betterave à sucre, les dégâts étant dus aussi bien au adultes qu'aux larves.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-espèces
-Selon PESI[1].
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon PESI.
 Asproparthenis punctiventris farinosa (Fahaeus, 1842)
 Asproparthenis punctiventris nubeculosa (Boheman, 1829)
 Asproparthenis punctiventris punctiventris (Germar, 1824)</t>
@@ -546,7 +563,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lixus punctiventris Germar, 1824
 Bothynoderes austriacus Reitter, 1905
@@ -556,7 +575,7 @@
 Bothynoderes peregrinus Chevrolat, 1873
 Bothynoderes remaudierei Hoffman 1961
 Bothynoderes stigma Reitter, 1905
-Bothynoderes uniformis Chevrolat, 1873[2].</t>
+Bothynoderes uniformis Chevrolat, 1873.</t>
         </is>
       </c>
     </row>
